--- a/hints/Credit scoring.xlsx
+++ b/hints/Credit scoring.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABEACE02EC4F235960D65ADE58B3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{ACC2EB28-772B-45FE-854E-E567B346DB6A}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="11_F25DC773A252ABEACE02EC4F235960D65ADE58B3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2FE94475-D39F-4FB7-89EC-33DEC8C73EF9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>Card</t>
   </si>
@@ -109,21 +109,12 @@
     <t xml:space="preserve"> Red </t>
   </si>
   <si>
-    <t xml:space="preserve"> Black)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F</t>
   </si>
   <si>
     <t>PhD</t>
   </si>
   <si>
-    <t>10000 - 3000000</t>
-  </si>
-  <si>
-    <t>0, 0.01-5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Good</t>
   </si>
   <si>
@@ -136,15 +127,6 @@
     <t>TopMan</t>
   </si>
   <si>
-    <t>100 - 500000</t>
-  </si>
-  <si>
-    <t>20 - 504</t>
-  </si>
-  <si>
-    <t>0.01-5</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -221,6 +203,84 @@
   </si>
   <si>
     <t>8 - 15</t>
+  </si>
+  <si>
+    <t>1 - 3 mln</t>
+  </si>
+  <si>
+    <t>10000 - 30000</t>
+  </si>
+  <si>
+    <t>30000-50000</t>
+  </si>
+  <si>
+    <t>500000-1mln</t>
+  </si>
+  <si>
+    <t>300000-500000</t>
+  </si>
+  <si>
+    <t>50000-80000</t>
+  </si>
+  <si>
+    <t>80000 - 300000</t>
+  </si>
+  <si>
+    <t>253 - 504</t>
+  </si>
+  <si>
+    <t>21 - 63</t>
+  </si>
+  <si>
+    <t>64 - 126</t>
+  </si>
+  <si>
+    <t>127 - 168</t>
+  </si>
+  <si>
+    <t>169 - 252</t>
+  </si>
+  <si>
+    <t>0 - 0.25</t>
+  </si>
+  <si>
+    <t>&gt; 3</t>
+  </si>
+  <si>
+    <t>0.25 - 1</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>&gt; 4</t>
+  </si>
+  <si>
+    <t>250000 - 500000</t>
+  </si>
+  <si>
+    <t>100 - 1000</t>
+  </si>
+  <si>
+    <t>1000 - 5000</t>
+  </si>
+  <si>
+    <t>5000 - 50000</t>
+  </si>
+  <si>
+    <t>50000-250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black</t>
+  </si>
+  <si>
+    <t>0 - 10000</t>
+  </si>
+  <si>
+    <t>10000 - 50000</t>
+  </si>
+  <si>
+    <t>&gt; 50000</t>
   </si>
 </sst>
 </file>
@@ -245,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +324,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -273,16 +339,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -565,19 +648,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.21875" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="3" max="9" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -597,36 +676,36 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -638,26 +717,26 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -669,26 +748,26 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -700,26 +779,26 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" t="s">
-        <v>37</v>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -731,23 +810,23 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C23">
+      <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>64</v>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -759,8 +838,26 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>32</v>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -770,13 +867,25 @@
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -784,12 +893,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11</v>
       </c>
@@ -797,18 +918,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12</v>
       </c>
@@ -816,21 +940,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13</v>
       </c>
@@ -838,12 +962,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -851,12 +987,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>15</v>
       </c>
@@ -864,12 +1012,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>16</v>
       </c>
@@ -877,7 +1034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>17</v>
       </c>
@@ -885,18 +1042,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F63" t="s">
-        <v>29</v>
+      <c r="F63" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,11 +1065,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D67" t="s">
-        <v>41</v>
+      <c r="D67" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/hints/Credit scoring.xlsx
+++ b/hints/Credit scoring.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="258" documentId="11_F25DC773A252ABEACE02EC4F235960D65ADE58B3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2FE94475-D39F-4FB7-89EC-33DEC8C73EF9}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="11_F25DC773A252ABEACE02EC4F235960D65ADE58B3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E834559C-21DA-4030-83B8-535E584DB030}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">BurdenRateBefore </t>
   </si>
   <si>
-    <t xml:space="preserve">Property </t>
-  </si>
-  <si>
     <t xml:space="preserve">CreditHistory </t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>&gt; 50000</t>
+  </si>
+  <si>
+    <t>Possessions</t>
   </si>
 </sst>
 </file>
@@ -305,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -366,6 +372,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -648,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +670,7 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -680,16 +687,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -702,10 +709,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -718,25 +725,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -749,25 +756,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -780,25 +787,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -814,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="G23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -839,25 +846,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="I27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -876,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -898,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -915,21 +922,21 @@
         <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -937,21 +944,21 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -959,24 +966,24 @@
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -984,24 +991,24 @@
         <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1009,21 +1016,22 @@
         <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1031,29 +1039,31 @@
         <v>16</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C58" s="7"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>17</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1061,15 +1071,16 @@
         <v>18</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C67" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/hints/Credit scoring.xlsx
+++ b/hints/Credit scoring.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_F25DC773A252ABEACE02EC4F235960D65ADE58B3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E834559C-21DA-4030-83B8-535E584DB030}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCB04A7-0339-47DF-ABAB-95353006012E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -373,6 +373,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -655,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,6 +868,29 @@
         <v>60</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>9</v>
+      </c>
+    </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9</v>
@@ -892,6 +916,20 @@
         <v>85</v>
       </c>
     </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
@@ -915,6 +953,20 @@
       </c>
       <c r="G35" s="3" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="8">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
